--- a/Testdata/ChangeTestCases.xlsx
+++ b/Testdata/ChangeTestCases.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3108" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3114" uniqueCount="762">
   <si>
     <t>Release Name:</t>
   </si>

--- a/Testdata/ChangeTestCases.xlsx
+++ b/Testdata/ChangeTestCases.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3114" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3124" uniqueCount="762">
   <si>
     <t>Release Name:</t>
   </si>
